--- a/APPSHEET/EXCEL/deposito_banco_melo1.xlsx
+++ b/APPSHEET/EXCEL/deposito_banco_melo1.xlsx
@@ -207,7 +207,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">22</t>
+            <t xml:space="preserve">60</t>
           </r>
         </is>
       </c>
@@ -216,7 +216,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-08-14</t>
+            <t xml:space="preserve">2023-11-03</t>
           </r>
         </is>
       </c>
@@ -225,7 +225,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+            <t xml:space="preserve">SOLAR-1117380</t>
           </r>
         </is>
       </c>
@@ -261,7 +261,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000000</t>
+            <t xml:space="preserve">2000000</t>
           </r>
         </is>
       </c>
@@ -281,7 +281,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21</t>
+            <t xml:space="preserve">57</t>
           </r>
         </is>
       </c>
@@ -290,7 +290,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-08-11</t>
+            <t xml:space="preserve">2023-10-31</t>
           </r>
         </is>
       </c>
@@ -335,7 +335,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3000000</t>
+            <t xml:space="preserve">2155000</t>
           </r>
         </is>
       </c>
@@ -355,7 +355,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">20</t>
+            <t xml:space="preserve">55</t>
           </r>
         </is>
       </c>
@@ -364,7 +364,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-08-11</t>
+            <t xml:space="preserve">2023-10-30</t>
           </r>
         </is>
       </c>
@@ -373,7 +373,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+            <t xml:space="preserve">BANCO RIO-02250068329001 - A</t>
           </r>
         </is>
       </c>
@@ -409,7 +409,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3000000</t>
+            <t xml:space="preserve">5000000</t>
           </r>
         </is>
       </c>
@@ -429,7 +429,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">19</t>
+            <t xml:space="preserve">56</t>
           </r>
         </is>
       </c>
@@ -438,7 +438,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-08-07</t>
+            <t xml:space="preserve">2023-10-30</t>
           </r>
         </is>
       </c>
@@ -483,7 +483,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3000000</t>
+            <t xml:space="preserve">5000000</t>
           </r>
         </is>
       </c>
@@ -503,7 +503,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">18</t>
+            <t xml:space="preserve">54</t>
           </r>
         </is>
       </c>
@@ -512,7 +512,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-08-07</t>
+            <t xml:space="preserve">2023-10-27</t>
           </r>
         </is>
       </c>
@@ -521,7 +521,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
           </r>
         </is>
       </c>
@@ -557,7 +557,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6000000</t>
+            <t xml:space="preserve">4000000</t>
           </r>
         </is>
       </c>
@@ -577,7 +577,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">17</t>
+            <t xml:space="preserve">53</t>
           </r>
         </is>
       </c>
@@ -586,7 +586,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-07-31</t>
+            <t xml:space="preserve">2023-10-27</t>
           </r>
         </is>
       </c>
@@ -631,7 +631,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7000000</t>
+            <t xml:space="preserve">3500000</t>
           </r>
         </is>
       </c>
@@ -651,7 +651,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">16</t>
+            <t xml:space="preserve">51</t>
           </r>
         </is>
       </c>
@@ -660,7 +660,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-07-28</t>
+            <t xml:space="preserve">2023-10-23</t>
           </r>
         </is>
       </c>
@@ -669,7 +669,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
           </r>
         </is>
       </c>
@@ -705,7 +705,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6000000</t>
+            <t xml:space="preserve">5000000</t>
           </r>
         </is>
       </c>
@@ -725,7 +725,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15</t>
+            <t xml:space="preserve">52</t>
           </r>
         </is>
       </c>
@@ -734,7 +734,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-07-24</t>
+            <t xml:space="preserve">2023-10-23</t>
           </r>
         </is>
       </c>
@@ -743,7 +743,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
           </r>
         </is>
       </c>
@@ -779,7 +779,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4000000</t>
+            <t xml:space="preserve">3000000</t>
           </r>
         </is>
       </c>
@@ -799,7 +799,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">14</t>
+            <t xml:space="preserve">50</t>
           </r>
         </is>
       </c>
@@ -808,7 +808,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-07-24</t>
+            <t xml:space="preserve">2023-10-21</t>
           </r>
         </is>
       </c>
@@ -817,7 +817,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
           </r>
         </is>
       </c>
@@ -853,7 +853,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000000</t>
+            <t xml:space="preserve">3026000</t>
           </r>
         </is>
       </c>
@@ -873,7 +873,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">12</t>
+            <t xml:space="preserve">48</t>
           </r>
         </is>
       </c>
@@ -882,7 +882,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-07-21</t>
+            <t xml:space="preserve">2023-10-20</t>
           </r>
         </is>
       </c>
@@ -891,7 +891,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
           </r>
         </is>
       </c>
@@ -927,7 +927,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3000000</t>
+            <t xml:space="preserve">4000000</t>
           </r>
         </is>
       </c>
@@ -947,7 +947,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13</t>
+            <t xml:space="preserve">49</t>
           </r>
         </is>
       </c>
@@ -956,7 +956,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-07-21</t>
+            <t xml:space="preserve">2023-10-20</t>
           </r>
         </is>
       </c>
@@ -965,7 +965,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
           </r>
         </is>
       </c>
@@ -1021,7 +1021,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">11</t>
+            <t xml:space="preserve">47</t>
           </r>
         </is>
       </c>
@@ -1030,7 +1030,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-07-17</t>
+            <t xml:space="preserve">2023-10-17</t>
           </r>
         </is>
       </c>
@@ -1075,7 +1075,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3500000</t>
+            <t xml:space="preserve">4000000</t>
           </r>
         </is>
       </c>
@@ -1095,7 +1095,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10</t>
+            <t xml:space="preserve">46</t>
           </r>
         </is>
       </c>
@@ -1104,7 +1104,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-07-14</t>
+            <t xml:space="preserve">2023-10-16</t>
           </r>
         </is>
       </c>
@@ -1149,7 +1149,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9000000</t>
+            <t xml:space="preserve">3000000</t>
           </r>
         </is>
       </c>
@@ -1169,7 +1169,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9</t>
+            <t xml:space="preserve">45</t>
           </r>
         </is>
       </c>
@@ -1178,7 +1178,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-07-11</t>
+            <t xml:space="preserve">2023-10-16</t>
           </r>
         </is>
       </c>
@@ -1187,7 +1187,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
           </r>
         </is>
       </c>
@@ -1223,7 +1223,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000000</t>
+            <t xml:space="preserve">3000000</t>
           </r>
         </is>
       </c>
@@ -1243,7 +1243,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8</t>
+            <t xml:space="preserve">59</t>
           </r>
         </is>
       </c>
@@ -1252,7 +1252,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-07-10</t>
+            <t xml:space="preserve">2023-10-13</t>
           </r>
         </is>
       </c>
@@ -1297,7 +1297,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000000</t>
+            <t xml:space="preserve">3000000</t>
           </r>
         </is>
       </c>
@@ -1317,7 +1317,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7</t>
+            <t xml:space="preserve">58</t>
           </r>
         </is>
       </c>
@@ -1326,7 +1326,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-07-07</t>
+            <t xml:space="preserve">2023-10-13</t>
           </r>
         </is>
       </c>
@@ -1335,7 +1335,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
           </r>
         </is>
       </c>
@@ -1371,7 +1371,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7000000</t>
+            <t xml:space="preserve">4000000</t>
           </r>
         </is>
       </c>
@@ -1391,7 +1391,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6</t>
+            <t xml:space="preserve">43</t>
           </r>
         </is>
       </c>
@@ -1400,7 +1400,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-06-30</t>
+            <t xml:space="preserve">2023-10-09</t>
           </r>
         </is>
       </c>
@@ -1409,7 +1409,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SOLAR-1117380</t>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
           </r>
         </is>
       </c>
@@ -1445,7 +1445,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4000000</t>
+            <t xml:space="preserve">6000000</t>
           </r>
         </is>
       </c>
@@ -1465,7 +1465,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5</t>
+            <t xml:space="preserve">44</t>
           </r>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-06-30</t>
+            <t xml:space="preserve">2023-10-09</t>
           </r>
         </is>
       </c>
@@ -1519,7 +1519,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6000000</t>
+            <t xml:space="preserve">5000000</t>
           </r>
         </is>
       </c>
@@ -1539,7 +1539,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4</t>
+            <t xml:space="preserve">42</t>
           </r>
         </is>
       </c>
@@ -1548,7 +1548,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-06-26</t>
+            <t xml:space="preserve">2023-10-08</t>
           </r>
         </is>
       </c>
@@ -1593,7 +1593,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4000000</t>
+            <t xml:space="preserve">1567000</t>
           </r>
         </is>
       </c>
@@ -1613,7 +1613,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">41</t>
           </r>
         </is>
       </c>
@@ -1622,7 +1622,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-06-26</t>
+            <t xml:space="preserve">2023-10-06</t>
           </r>
         </is>
       </c>
@@ -1631,7 +1631,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+            <t xml:space="preserve">SOLAR-1117380</t>
           </r>
         </is>
       </c>
@@ -1667,7 +1667,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3000000</t>
+            <t xml:space="preserve">2000000</t>
           </r>
         </is>
       </c>
@@ -1687,7 +1687,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">40</t>
           </r>
         </is>
       </c>
@@ -1696,7 +1696,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-06-23</t>
+            <t xml:space="preserve">2023-09-28</t>
           </r>
         </is>
       </c>
@@ -1705,7 +1705,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
           </r>
         </is>
       </c>
@@ -1732,7 +1732,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">IRMA</t>
+            <t xml:space="preserve">Ninguna</t>
           </r>
         </is>
       </c>
@@ -1741,7 +1741,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7000000</t>
+            <t xml:space="preserve">4000000</t>
           </r>
         </is>
       </c>
@@ -1761,11 +1761,2601 @@
           <r>
             <rPr>
        </rPr>
+            <t xml:space="preserve">39</t>
+          </r>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-09-25</t>
+          </r>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="24" customHeight="1" ht="15">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">38</t>
+          </r>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-09-25</t>
+          </r>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="25" customHeight="1" ht="15">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">36</t>
+          </r>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-09-22</t>
+          </r>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="26" customHeight="1" ht="15">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">37</t>
+          </r>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-09-22</t>
+          </r>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="27" customHeight="1" ht="15">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">35</t>
+          </r>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-09-18</t>
+          </r>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="28" customHeight="1" ht="15">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">32</t>
+          </r>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-09-11</t>
+          </r>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3145000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="29" customHeight="1" ht="15">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">31</t>
+          </r>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-09-11</t>
+          </r>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="30" customHeight="1" ht="15">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30</t>
+          </r>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-09-04</t>
+          </r>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="31" customHeight="1" ht="15">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">29</t>
+          </r>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-08-31</t>
+          </r>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1275000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="32" customHeight="1" ht="15">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">28</t>
+          </r>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-08-28</t>
+          </r>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="33" customHeight="1" ht="15">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">27</t>
+          </r>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-08-28</t>
+          </r>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4500000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="34" customHeight="1" ht="15">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">26</t>
+          </r>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-08-25</t>
+          </r>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="35" customHeight="1" ht="15">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25</t>
+          </r>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-08-23</t>
+          </r>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4510000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="36" customHeight="1" ht="15">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">24</t>
+          </r>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-08-21</t>
+          </r>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="37" customHeight="1" ht="15">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">23</t>
+          </r>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-08-18</t>
+          </r>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="38" customHeight="1" ht="15">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">22</t>
+          </r>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-08-14</t>
+          </r>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="39" customHeight="1" ht="15">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">21</t>
+          </r>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-08-11</t>
+          </r>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="40" customHeight="1" ht="15">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">20</t>
+          </r>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-08-11</t>
+          </r>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="41" customHeight="1" ht="15">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">19</t>
+          </r>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-08-07</t>
+          </r>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="42" customHeight="1" ht="15">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">18</t>
+          </r>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-08-07</t>
+          </r>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">6000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="43" customHeight="1" ht="15">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">17</t>
+          </r>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-07-31</t>
+          </r>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="44" customHeight="1" ht="15">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">16</t>
+          </r>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-07-28</t>
+          </r>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">6000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="45" customHeight="1" ht="15">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15</t>
+          </r>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-07-24</t>
+          </r>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="46" customHeight="1" ht="15">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">14</t>
+          </r>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-07-24</t>
+          </r>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="47" customHeight="1" ht="15">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">12</t>
+          </r>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-07-21</t>
+          </r>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="48" customHeight="1" ht="15">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">13</t>
+          </r>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-07-21</t>
+          </r>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="49" customHeight="1" ht="15">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">11</t>
+          </r>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-07-17</t>
+          </r>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SOLAR-1117380</t>
+          </r>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3500000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="50" customHeight="1" ht="15">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">10</t>
+          </r>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-07-14</t>
+          </r>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">9000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="51" customHeight="1" ht="15">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">9</t>
+          </r>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-07-11</t>
+          </r>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="52" customHeight="1" ht="15">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">8</t>
+          </r>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-07-10</t>
+          </r>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="53" customHeight="1" ht="15">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7</t>
+          </r>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-07-07</t>
+          </r>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="54" customHeight="1" ht="15">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">6</t>
+          </r>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-06-30</t>
+          </r>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SOLAR-1117380</t>
+          </r>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="55" customHeight="1" ht="15">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5</t>
+          </r>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-06-30</t>
+          </r>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F55" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">6000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="56" customHeight="1" ht="15">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4</t>
+          </r>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-06-26</t>
+          </r>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="57" customHeight="1" ht="15">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3</t>
+          </r>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-06-26</t>
+          </r>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-543371 - AHORRO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">Ninguna</t>
+          </r>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="58" customHeight="1" ht="15">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
             <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B58" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -1774,7 +4364,7 @@
           </r>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C58" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -1783,25 +4373,25 @@
           </r>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">SIN-REF</t>
-          </r>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">DEPOSITO DE CAJA</t>
-          </r>
-        </is>
-      </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F58" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -1810,7 +4400,7 @@
           </r>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="G58" s="2" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -1819,25 +4409,99 @@
           </r>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0,00</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="24" customHeight="1" ht="380">
-      <c r="A24" s="3" t="inlineStr"/>
-      <c r="B24" s="3" t="inlineStr"/>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr"/>
-      <c r="G24" s="3" t="inlineStr"/>
-      <c r="H24" s="3" t="inlineStr"/>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="59" customHeight="1" ht="15">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-06-23</t>
+          </r>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VISION-20020598-3   CTA CTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIN-REF</t>
+          </r>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">DEPOSITO DE CAJA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">IRMA</t>
+          </r>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7000000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0,00</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="60" customHeight="1" ht="380">
+      <c r="A60" s="3" t="inlineStr"/>
+      <c r="B60" s="3" t="inlineStr"/>
+      <c r="C60" s="3" t="inlineStr"/>
+      <c r="D60" s="3" t="inlineStr"/>
+      <c r="E60" s="3" t="inlineStr"/>
+      <c r="F60" s="3" t="inlineStr"/>
+      <c r="G60" s="3" t="inlineStr"/>
+      <c r="H60" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
